--- a/PeopleServiceTest/CurrencyConvertionData.xlsx
+++ b/PeopleServiceTest/CurrencyConvertionData.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCS_USER\Desktop\vishnu\PeopleServiceTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8295" windowHeight="3885"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,9 +35,6 @@
     <t>Currency I Want Country</t>
   </si>
   <si>
-    <t>US Dollar</t>
-  </si>
-  <si>
     <t>Euro</t>
   </si>
   <si>
@@ -41,6 +42,9 @@
   </si>
   <si>
     <t>C03/14/2016</t>
+  </si>
+  <si>
+    <t>Indian Rupee</t>
   </si>
 </sst>
 </file>
@@ -361,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,7 +379,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -389,16 +393,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>0.89668999999999999</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PeopleServiceTest/CurrencyConvertionData.xlsx
+++ b/PeopleServiceTest/CurrencyConvertionData.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +399,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.89668999999999999</v>
+        <v>9.9999999999999905E+26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>

--- a/PeopleServiceTest/CurrencyConvertionData.xlsx
+++ b/PeopleServiceTest/CurrencyConvertionData.xlsx
@@ -44,7 +44,7 @@
     <t>C03/14/2016</t>
   </si>
   <si>
-    <t>Indian Rupee</t>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +399,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>9.9999999999999905E+26</v>
+        <v>0.89668999999999999</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
